--- a/class_materials/projects/movies/trope_datasheet.xlsx
+++ b/class_materials/projects/movies/trope_datasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_website/assignments/01_movies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_RainForests/class_materials/projects/movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91303F5-C215-144C-9228-E916EEDC9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D0952-E688-D54F-8D15-980A1B550FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="26500" windowHeight="22500" xr2:uid="{010AF7E5-8D07-3644-9D19-D3D6409E16EE}"/>
+    <workbookView xWindow="7680" yWindow="500" windowWidth="26500" windowHeight="21100" xr2:uid="{010AF7E5-8D07-3644-9D19-D3D6409E16EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Brief_Description_or_Notes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Time_Stamp</t>
   </si>
@@ -48,7 +45,13 @@
     <t>Event_No</t>
   </si>
   <si>
-    <t>Trope_Abbrev</t>
+    <t>Brief_Description</t>
+  </si>
+  <si>
+    <t>Trope_ID_No.</t>
+  </si>
+  <si>
+    <t>Movie</t>
   </si>
 </sst>
 </file>
@@ -71,15 +74,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,31 +96,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,436 +454,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C747B220-ABF7-A04F-AF2F-37E148B1DB3F}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="52" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="13.5" style="2"/>
+    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="7" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="13.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
         <v>80</v>
       </c>
     </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="4">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="TROPE ID ERROR" error="Please enter a value between 1 and 96. " sqref="D1:D1048576" xr:uid="{7711C202-9DF3-D542-8507-7A6CA5BC489D}">
+      <formula1>1</formula1>
+      <formula2>96</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="1"/>
   <pageMargins left="0.3" right="0.3" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="10" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/class_materials/projects/movies/trope_datasheet.xlsx
+++ b/class_materials/projects/movies/trope_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_RainForests/class_materials/projects/movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D0952-E688-D54F-8D15-980A1B550FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFD5F03-5681-314A-8270-D6C1CCFC8C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7680" yWindow="500" windowWidth="26500" windowHeight="21100" xr2:uid="{010AF7E5-8D07-3644-9D19-D3D6409E16EE}"/>
   </bookViews>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Time_Stamp</t>
-  </si>
-  <si>
     <t>Event_No</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Movie</t>
+  </si>
+  <si>
+    <t>Time_Stamp (hh:mm:ss)</t>
   </si>
 </sst>
 </file>
@@ -456,15 +456,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C747B220-ABF7-A04F-AF2F-37E148B1DB3F}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" customWidth="1"/>
     <col min="5" max="5" width="44.83203125" style="9" customWidth="1"/>
     <col min="6" max="16384" width="13.5" style="1"/>
@@ -472,19 +472,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
